--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrabajoPOM_Escobar\src\main\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_ME\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD92266-8BD8-4586-87AC-DB1AC68384F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E3BA7-1325-43E7-A8A6-75BD78A7F382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10410" xr2:uid="{E6394DFB-6163-4A1C-B561-81F0B75BD956}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Este es un campo obligatorio.</t>
   </si>
   <si>
-    <t>CP009_</t>
-  </si>
-  <si>
     <t>CP019</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>CP005_FormularioSinCorreo</t>
+  </si>
+  <si>
+    <t>CP009_prueba GIT</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0F2ADF-C989-42AB-BF3A-6576103AEB03}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +811,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -971,7 +971,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -999,10 +999,10 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -1082,8 +1082,8 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
+      <c r="A10" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="20" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
